--- a/DB.xlsx
+++ b/DB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
+    <t xml:space="preserve">First Name</t>
   </si>
   <si>
     <t xml:space="preserve">Last Name</t>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t xml:space="preserve">Murat Akhmetov </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurmukhanbet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rakhimbayev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurmukhanbet Rakhimbayev </t>
   </si>
 </sst>
 </file>
@@ -72,11 +81,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -96,14 +106,9 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
+      <name val="Ubuntu"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,7 +173,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,7 +201,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -204,7 +209,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.18"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
   </cols>
@@ -242,13 +247,13 @@
       <c r="B2" s="3" t="n">
         <v>830667168</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="n">
@@ -268,13 +273,13 @@
       <c r="B3" s="3" t="n">
         <v>294728712</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="4" t="n">
@@ -288,14 +293,30 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>287100650</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -303,9 +324,9 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -313,9 +334,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
@@ -323,9 +344,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
@@ -333,9 +354,9 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
@@ -343,9 +364,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
@@ -353,9 +374,9 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -363,9 +384,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -373,9 +394,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
@@ -383,9 +404,9 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -393,9 +414,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
@@ -403,9 +424,9 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
@@ -413,9 +434,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
@@ -423,9 +444,9 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
@@ -433,9 +454,9 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
@@ -443,9 +464,9 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
@@ -453,9 +474,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
@@ -463,9 +484,9 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
@@ -473,9 +494,9 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
@@ -483,9 +504,9 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -160,13 +160,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -214,7 +218,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -241,272 +245,272 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>830667168</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>265</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="G2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>294728712</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
+      <c r="G3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>287100650</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>350</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\Python\nurbank\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,68 +24,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">№</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gul’zinat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amentayeva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gul’zinat Amentayeva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akhmetov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murat Akhmetov </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurmukhanbet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rakhimbayev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurmukhanbet Rakhimbayev </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Last1</t>
+  </si>
+  <si>
+    <t>Username1</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Last2</t>
+  </si>
+  <si>
+    <t>Username2</t>
+  </si>
+  <si>
+    <t>Username3</t>
+  </si>
+  <si>
+    <t>Last3</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,24 +99,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -120,105 +113,346 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="26.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -244,11 +478,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:9">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="4">
         <v>830667168</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -260,21 +494,24 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="5">
         <v>265</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>294728712</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -286,43 +523,49 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="5">
         <v>50</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="4">
         <v>287100650</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5">
         <v>350</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -332,7 +575,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -342,7 +585,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -352,7 +595,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -362,7 +605,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -372,7 +615,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -382,7 +625,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -392,7 +635,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -402,7 +645,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -412,7 +655,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -422,7 +665,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -432,7 +675,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -442,7 +685,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -452,7 +695,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -462,7 +705,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -472,7 +715,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -482,7 +725,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -492,7 +735,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -502,7 +745,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -513,10 +756,9 @@
       <c r="H23" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
